--- a/.playwright-mcp/CUI-Parts-Orders-20260120.xlsx
+++ b/.playwright-mcp/CUI-Parts-Orders-20260120.xlsx
@@ -435,7 +435,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Generated: 2026-01-20 05:32:49Z</v>
+        <v>Generated: 2026-01-20 06:22:06Z</v>
       </c>
     </row>
     <row r="5">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="H8" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8" t="str">
         <v>$89.50</v>
       </c>
       <c r="J8" t="str">
-        <v>Received</v>
+        <v>Shipped</v>
       </c>
       <c r="K8" t="str">
         <v>Routine</v>
